--- a/V1.1/BOM/PierogiNixiePSU BOM.xlsx
+++ b/V1.1/BOM/PierogiNixiePSU BOM.xlsx
@@ -46,7 +46,7 @@
     <t>DC barrel jack</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/cui-devices/pj-202a/252007</t>
+    <t>https://www.digikey.com/en/products/detail/kycon-inc/KLDX-0202-A/9975992</t>
   </si>
   <si>
     <t>U1</t>
@@ -148,13 +148,13 @@
     <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
   </si>
   <si>
-    <t>VR1</t>
-  </si>
-  <si>
-    <t>TC33X-2-502E</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/bourns-inc/TC33X-2-502E/612861</t>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD3401F</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/koa-speer-electronics-inc/RK73H2ATTD3401F/10234136</t>
   </si>
   <si>
     <t>Board</t>
@@ -237,23 +237,33 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -275,6 +285,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -545,22 +556,22 @@
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="7">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="E3" s="4">
         <v>1.0</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -686,7 +697,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -770,7 +781,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -797,18 +808,18 @@
       <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="4">
         <v>1.0</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="2"/>
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
@@ -827,18 +838,18 @@
       <c r="E16" s="4">
         <v>1.0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="11">
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="17">
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="8">
         <f>SUM(F2:F16)</f>
-        <v>17.71</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="18">
